--- a/Code/Results/Cases/Case_0_199/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_199/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005334878095583</v>
+        <v>1.035734047817174</v>
       </c>
       <c r="D2">
-        <v>1.018923822269441</v>
+        <v>1.043269584451086</v>
       </c>
       <c r="E2">
-        <v>1.011058313954743</v>
+        <v>1.034750445191287</v>
       </c>
       <c r="F2">
-        <v>1.025482726477292</v>
+        <v>1.051918106173402</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050806249262393</v>
+        <v>1.036959400417701</v>
       </c>
       <c r="J2">
-        <v>1.027357186363135</v>
+        <v>1.040846206301867</v>
       </c>
       <c r="K2">
-        <v>1.030125666225585</v>
+        <v>1.046043925429537</v>
       </c>
       <c r="L2">
-        <v>1.022365709009161</v>
+        <v>1.037549022485983</v>
       </c>
       <c r="M2">
-        <v>1.03659810473047</v>
+        <v>1.054668278148881</v>
       </c>
       <c r="N2">
-        <v>1.028816151407291</v>
+        <v>1.042324327301544</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.0099683128094</v>
+        <v>1.036703838607883</v>
       </c>
       <c r="D3">
-        <v>1.022855402245699</v>
+        <v>1.044140052608532</v>
       </c>
       <c r="E3">
-        <v>1.014764972057228</v>
+        <v>1.035574561430758</v>
       </c>
       <c r="F3">
-        <v>1.029841868234487</v>
+        <v>1.052886528853457</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052080161707695</v>
+        <v>1.037130628279976</v>
       </c>
       <c r="J3">
-        <v>1.030190871647786</v>
+        <v>1.041459566250191</v>
       </c>
       <c r="K3">
-        <v>1.033203962969696</v>
+        <v>1.04672523875915</v>
       </c>
       <c r="L3">
-        <v>1.025212354642648</v>
+        <v>1.038182351663187</v>
       </c>
       <c r="M3">
-        <v>1.04010664055475</v>
+        <v>1.055449042855943</v>
       </c>
       <c r="N3">
-        <v>1.031653860850071</v>
+        <v>1.042938558291349</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.01290229025302</v>
+        <v>1.037331431404833</v>
       </c>
       <c r="D4">
-        <v>1.025349919535501</v>
+        <v>1.044703656870942</v>
       </c>
       <c r="E4">
-        <v>1.017118070432811</v>
+        <v>1.036108270677744</v>
       </c>
       <c r="F4">
-        <v>1.032607052800625</v>
+        <v>1.053513530400893</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052871078579908</v>
+        <v>1.037239477210543</v>
       </c>
       <c r="J4">
-        <v>1.031981614936835</v>
+        <v>1.04185591992719</v>
       </c>
       <c r="K4">
-        <v>1.035151725416597</v>
+        <v>1.04716580836074</v>
       </c>
       <c r="L4">
-        <v>1.027014193795696</v>
+        <v>1.038591961601045</v>
       </c>
       <c r="M4">
-        <v>1.042327244319773</v>
+        <v>1.055953997324652</v>
       </c>
       <c r="N4">
-        <v>1.033447147199991</v>
+        <v>1.043335474836031</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014120919949279</v>
+        <v>1.037595288231778</v>
       </c>
       <c r="D5">
-        <v>1.026387169487224</v>
+        <v>1.044940679504489</v>
       </c>
       <c r="E5">
-        <v>1.018096820163528</v>
+        <v>1.036332748822161</v>
       </c>
       <c r="F5">
-        <v>1.0337567100416</v>
+        <v>1.053777208639293</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053195751546413</v>
+        <v>1.037284770540941</v>
       </c>
       <c r="J5">
-        <v>1.0327244996524</v>
+        <v>1.042022418970643</v>
       </c>
       <c r="K5">
-        <v>1.035960337204575</v>
+        <v>1.047350954490662</v>
       </c>
       <c r="L5">
-        <v>1.02776238010579</v>
+        <v>1.038764113687836</v>
       </c>
       <c r="M5">
-        <v>1.043249274185293</v>
+        <v>1.056166218690577</v>
       </c>
       <c r="N5">
-        <v>1.034191086897062</v>
+        <v>1.043502210327223</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014324679880473</v>
+        <v>1.037639591918701</v>
       </c>
       <c r="D6">
-        <v>1.026560668427963</v>
+        <v>1.044980481504938</v>
       </c>
       <c r="E6">
-        <v>1.018260551542991</v>
+        <v>1.036370445917492</v>
       </c>
       <c r="F6">
-        <v>1.033949003174332</v>
+        <v>1.053821486431562</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053249811129823</v>
+        <v>1.037292348100166</v>
       </c>
       <c r="J6">
-        <v>1.032848658939926</v>
+        <v>1.042050367358927</v>
       </c>
       <c r="K6">
-        <v>1.036095516226529</v>
+        <v>1.047382037247618</v>
       </c>
       <c r="L6">
-        <v>1.027887466573912</v>
+        <v>1.038793015943322</v>
       </c>
       <c r="M6">
-        <v>1.04340342254367</v>
+        <v>1.056201847955363</v>
       </c>
       <c r="N6">
-        <v>1.034315422505018</v>
+        <v>1.043530198405424</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01291863114974</v>
+        <v>1.037334957007522</v>
       </c>
       <c r="D7">
-        <v>1.025363823776071</v>
+        <v>1.044706823652708</v>
       </c>
       <c r="E7">
-        <v>1.017131189292626</v>
+        <v>1.036111269747625</v>
       </c>
       <c r="F7">
-        <v>1.032622464391121</v>
+        <v>1.053517053342855</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052875447423944</v>
+        <v>1.037240084257124</v>
       </c>
       <c r="J7">
-        <v>1.031991580068592</v>
+        <v>1.041858145199775</v>
       </c>
       <c r="K7">
-        <v>1.035162569888424</v>
+        <v>1.047168282566</v>
       </c>
       <c r="L7">
-        <v>1.027024227280131</v>
+        <v>1.03859426209515</v>
       </c>
       <c r="M7">
-        <v>1.042339609278635</v>
+        <v>1.055956833279876</v>
       </c>
       <c r="N7">
-        <v>1.033457126483379</v>
+        <v>1.043337703268759</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006914393158131</v>
+        <v>1.036061777535873</v>
       </c>
       <c r="D8">
-        <v>1.020263010170661</v>
+        <v>1.043563689429955</v>
       </c>
       <c r="E8">
-        <v>1.012320614081974</v>
+        <v>1.035028865058131</v>
       </c>
       <c r="F8">
-        <v>1.026967685159148</v>
+        <v>1.052245312408064</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05124378981804</v>
+        <v>1.037017670410177</v>
       </c>
       <c r="J8">
-        <v>1.028323907288902</v>
+        <v>1.041053603642337</v>
       </c>
       <c r="K8">
-        <v>1.031175326922076</v>
+        <v>1.046274237048945</v>
       </c>
       <c r="L8">
-        <v>1.02333624152833</v>
+        <v>1.037763099161719</v>
       </c>
       <c r="M8">
-        <v>1.037794344026104</v>
+        <v>1.054932192895021</v>
       </c>
       <c r="N8">
-        <v>1.029784245187653</v>
+        <v>1.042532019170026</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9958166389413337</v>
+        <v>1.033818866049183</v>
       </c>
       <c r="D9">
-        <v>1.010876739871077</v>
+        <v>1.041552095777596</v>
       </c>
       <c r="E9">
-        <v>1.003478975361483</v>
+        <v>1.033125034907463</v>
       </c>
       <c r="F9">
-        <v>1.016556790692461</v>
+        <v>1.050007205839053</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048104969796182</v>
+        <v>1.036610866150621</v>
       </c>
       <c r="J9">
-        <v>1.021517992289728</v>
+        <v>1.039631867915557</v>
       </c>
       <c r="K9">
-        <v>1.023795780397813</v>
+        <v>1.04469666764552</v>
       </c>
       <c r="L9">
-        <v>1.016515859668594</v>
+        <v>1.036297019801603</v>
       </c>
       <c r="M9">
-        <v>1.029386837784039</v>
+        <v>1.053124757296032</v>
       </c>
       <c r="N9">
-        <v>1.022968665008531</v>
+        <v>1.041108264415439</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9880311833602829</v>
+        <v>1.032324031430063</v>
       </c>
       <c r="D10">
-        <v>1.004323264602216</v>
+        <v>1.040212951513058</v>
       </c>
       <c r="E10">
-        <v>0.997313356951179</v>
+        <v>1.03185823964231</v>
       </c>
       <c r="F10">
-        <v>1.009283823253264</v>
+        <v>1.048517125783355</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045823324401208</v>
+        <v>1.036329694659536</v>
       </c>
       <c r="J10">
-        <v>1.016727851705764</v>
+        <v>1.038681383555045</v>
       </c>
       <c r="K10">
-        <v>1.018614897450197</v>
+        <v>1.043643564931695</v>
       </c>
       <c r="L10">
-        <v>1.011731289592657</v>
+        <v>1.035318701800456</v>
       </c>
       <c r="M10">
-        <v>1.023487454429574</v>
+        <v>1.051918590281251</v>
       </c>
       <c r="N10">
-        <v>1.018171721875501</v>
+        <v>1.040156430258113</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9845587140987474</v>
+        <v>1.031676863657248</v>
       </c>
       <c r="D11">
-        <v>1.001408454365011</v>
+        <v>1.039633555608763</v>
       </c>
       <c r="E11">
-        <v>0.9945729668875211</v>
+        <v>1.03131029236648</v>
       </c>
       <c r="F11">
-        <v>1.006047898912457</v>
+        <v>1.047872390158449</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044787603034892</v>
+        <v>1.036205587464062</v>
       </c>
       <c r="J11">
-        <v>1.014588282729121</v>
+        <v>1.038269192235574</v>
       </c>
       <c r="K11">
-        <v>1.016303858089922</v>
+        <v>1.043187241030139</v>
       </c>
       <c r="L11">
-        <v>1.009597959991127</v>
+        <v>1.034894868963123</v>
       </c>
       <c r="M11">
-        <v>1.020856654928171</v>
+        <v>1.051396031682126</v>
       </c>
       <c r="N11">
-        <v>1.0160291144655</v>
+        <v>1.039743653579689</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9832527839185468</v>
+        <v>1.031436493119729</v>
       </c>
       <c r="D12">
-        <v>1.000313544060613</v>
+        <v>1.039418412665187</v>
       </c>
       <c r="E12">
-        <v>0.9935438724226007</v>
+        <v>1.03110684908114</v>
       </c>
       <c r="F12">
-        <v>1.004832188908477</v>
+        <v>1.047632979586438</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044395447702879</v>
+        <v>1.036159134806601</v>
       </c>
       <c r="J12">
-        <v>1.013783225358361</v>
+        <v>1.038115992820593</v>
       </c>
       <c r="K12">
-        <v>1.015434739525489</v>
+        <v>1.043017694230859</v>
       </c>
       <c r="L12">
-        <v>1.008795815783945</v>
+        <v>1.034737407129796</v>
       </c>
       <c r="M12">
-        <v>1.019867393686392</v>
+        <v>1.051201888938192</v>
       </c>
       <c r="N12">
-        <v>1.015222913820931</v>
+        <v>1.039590236603967</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9835336537920519</v>
+        <v>1.031488052665707</v>
       </c>
       <c r="D13">
-        <v>1.000548969711661</v>
+        <v>1.039464558350587</v>
       </c>
       <c r="E13">
-        <v>0.9937651328760119</v>
+        <v>1.031150484323998</v>
       </c>
       <c r="F13">
-        <v>1.005093596902269</v>
+        <v>1.047684330649859</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044479907650165</v>
+        <v>1.036169115056973</v>
       </c>
       <c r="J13">
-        <v>1.013956388601749</v>
+        <v>1.038148858821077</v>
       </c>
       <c r="K13">
-        <v>1.015621661291567</v>
+        <v>1.043054064744164</v>
       </c>
       <c r="L13">
-        <v>1.008968326842545</v>
+        <v>1.034771184637651</v>
       </c>
       <c r="M13">
-        <v>1.02008014962947</v>
+        <v>1.05124353506636</v>
       </c>
       <c r="N13">
-        <v>1.015396322975987</v>
+        <v>1.039623149277941</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9844510992624534</v>
+        <v>1.03165699421619</v>
       </c>
       <c r="D14">
-        <v>1.001318201853224</v>
+        <v>1.039615770382003</v>
       </c>
       <c r="E14">
-        <v>0.9944881334179203</v>
+        <v>1.031293473864775</v>
       </c>
       <c r="F14">
-        <v>1.00594769266073</v>
+        <v>1.047852598912037</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044755340791878</v>
+        <v>1.03620175488547</v>
       </c>
       <c r="J14">
-        <v>1.014521950104399</v>
+        <v>1.038256530621248</v>
       </c>
       <c r="K14">
-        <v>1.016232237848806</v>
+        <v>1.043173227208914</v>
       </c>
       <c r="L14">
-        <v>1.009531855894423</v>
+        <v>1.0348818537557</v>
       </c>
       <c r="M14">
-        <v>1.020775132020491</v>
+        <v>1.051379984617891</v>
       </c>
       <c r="N14">
-        <v>1.015962687640841</v>
+        <v>1.039730973984419</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9850142068266141</v>
+        <v>1.031761086869003</v>
       </c>
       <c r="D15">
-        <v>1.001790512140833</v>
+        <v>1.03970894647668</v>
       </c>
       <c r="E15">
-        <v>0.9949320968997607</v>
+        <v>1.031381586229814</v>
       </c>
       <c r="F15">
-        <v>1.006472085650611</v>
+        <v>1.047956284237816</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04492404971999</v>
+        <v>1.036221818506388</v>
       </c>
       <c r="J15">
-        <v>1.014869027333976</v>
+        <v>1.038322858442326</v>
       </c>
       <c r="K15">
-        <v>1.01660700053123</v>
+        <v>1.043246640828687</v>
       </c>
       <c r="L15">
-        <v>1.009877760429982</v>
+        <v>1.034950036509011</v>
       </c>
       <c r="M15">
-        <v>1.021201716247184</v>
+        <v>1.051464050255724</v>
       </c>
       <c r="N15">
-        <v>1.016310257759895</v>
+        <v>1.03979739599861</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9882594315551401</v>
+        <v>1.032366984092349</v>
       </c>
       <c r="D16">
-        <v>1.004515033133361</v>
+        <v>1.040251413940658</v>
       </c>
       <c r="E16">
-        <v>0.9974936908681684</v>
+        <v>1.031894617482622</v>
       </c>
       <c r="F16">
-        <v>1.009496694262714</v>
+        <v>1.048559924938219</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045891033281471</v>
+        <v>1.036337881610838</v>
       </c>
       <c r="J16">
-        <v>1.016868427986146</v>
+        <v>1.038708726224</v>
       </c>
       <c r="K16">
-        <v>1.018766803390598</v>
+        <v>1.043673842900502</v>
       </c>
       <c r="L16">
-        <v>1.011871534138977</v>
+        <v>1.035346825735866</v>
       </c>
       <c r="M16">
-        <v>1.023660393736161</v>
+        <v>1.051953264945507</v>
       </c>
       <c r="N16">
-        <v>1.018312497790325</v>
+        <v>1.040183811756795</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9902673498663767</v>
+        <v>1.032747076036091</v>
       </c>
       <c r="D17">
-        <v>1.006202973900687</v>
+        <v>1.040591813970045</v>
       </c>
       <c r="E17">
-        <v>0.9990812034209564</v>
+        <v>1.032216585396428</v>
       </c>
       <c r="F17">
-        <v>1.011370251374812</v>
+        <v>1.048938701717477</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046484628454251</v>
+        <v>1.036410053998169</v>
       </c>
       <c r="J17">
-        <v>1.018104746498391</v>
+        <v>1.038950603997931</v>
       </c>
       <c r="K17">
-        <v>1.020103109679192</v>
+        <v>1.043941729446079</v>
       </c>
       <c r="L17">
-        <v>1.013105361670761</v>
+        <v>1.035595664228877</v>
       </c>
       <c r="M17">
-        <v>1.025181813332576</v>
+        <v>1.052260061983759</v>
       </c>
       <c r="N17">
-        <v>1.019550572016666</v>
+        <v>1.040426033024908</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9914288218779602</v>
+        <v>1.032968787377537</v>
       </c>
       <c r="D18">
-        <v>1.00718012618112</v>
+        <v>1.040790408094622</v>
       </c>
       <c r="E18">
-        <v>1.000000398455676</v>
+        <v>1.032404440054316</v>
       </c>
       <c r="F18">
-        <v>1.01245475336468</v>
+        <v>1.049159681941829</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046826274026758</v>
+        <v>1.036451923372676</v>
       </c>
       <c r="J18">
-        <v>1.018819594998321</v>
+        <v>1.039091626827566</v>
       </c>
       <c r="K18">
-        <v>1.020876061665832</v>
+        <v>1.044097951870649</v>
       </c>
       <c r="L18">
-        <v>1.01381912502175</v>
+        <v>1.035740786743745</v>
       </c>
       <c r="M18">
-        <v>1.026061909723299</v>
+        <v>1.05243898439836</v>
       </c>
       <c r="N18">
-        <v>1.02026643568346</v>
+        <v>1.040567256123136</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9918232320006893</v>
+        <v>1.03304438691908</v>
       </c>
       <c r="D19">
-        <v>1.007512074078246</v>
+        <v>1.040858131083645</v>
       </c>
       <c r="E19">
-        <v>1.000312688115524</v>
+        <v>1.032468503141301</v>
       </c>
       <c r="F19">
-        <v>1.01282315167979</v>
+        <v>1.049235038282871</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046941995872293</v>
+        <v>1.036466161132599</v>
       </c>
       <c r="J19">
-        <v>1.019062290070993</v>
+        <v>1.039139701703383</v>
       </c>
       <c r="K19">
-        <v>1.021138532407133</v>
+        <v>1.044151214352313</v>
       </c>
       <c r="L19">
-        <v>1.01406151187562</v>
+        <v>1.035790266223735</v>
       </c>
       <c r="M19">
-        <v>1.026360775383258</v>
+        <v>1.052499987692595</v>
       </c>
       <c r="N19">
-        <v>1.020509475410972</v>
+        <v>1.040615399270791</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9900529300163582</v>
+        <v>1.032706294714716</v>
       </c>
       <c r="D20">
-        <v>1.006022643175521</v>
+        <v>1.040555287653292</v>
       </c>
       <c r="E20">
-        <v>0.9989115830891918</v>
+        <v>1.032182035463316</v>
       </c>
       <c r="F20">
-        <v>1.011170101240226</v>
+        <v>1.048898057774253</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046421417788236</v>
+        <v>1.036402334117366</v>
       </c>
       <c r="J20">
-        <v>1.017972753788669</v>
+        <v>1.038924659042244</v>
       </c>
       <c r="K20">
-        <v>1.019960411937089</v>
+        <v>1.043912990982948</v>
       </c>
       <c r="L20">
-        <v>1.012973598033595</v>
+        <v>1.035568968355809</v>
       </c>
       <c r="M20">
-        <v>1.025019340933205</v>
+        <v>1.05222714836229</v>
       </c>
       <c r="N20">
-        <v>1.019418391862156</v>
+        <v>1.040400051224408</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.984181386279569</v>
+        <v>1.031607244683592</v>
       </c>
       <c r="D21">
-        <v>1.001092024818629</v>
+        <v>1.039571240253475</v>
       </c>
       <c r="E21">
-        <v>0.9942755415803128</v>
+        <v>1.031251364550931</v>
       </c>
       <c r="F21">
-        <v>1.005696568187798</v>
+        <v>1.047803046081123</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044674440290713</v>
+        <v>1.036192153029442</v>
       </c>
       <c r="J21">
-        <v>1.01435569558689</v>
+        <v>1.038224826526763</v>
       </c>
       <c r="K21">
-        <v>1.016052737947979</v>
+        <v>1.043138138145658</v>
       </c>
       <c r="L21">
-        <v>1.00936618326782</v>
+        <v>1.034849265320397</v>
       </c>
       <c r="M21">
-        <v>1.020570815104263</v>
+        <v>1.05133980475635</v>
       </c>
       <c r="N21">
-        <v>1.015796197022848</v>
+        <v>1.039699224866482</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9803960769236332</v>
+        <v>1.030916323393028</v>
       </c>
       <c r="D22">
-        <v>0.9979208999324637</v>
+        <v>1.038952938949236</v>
       </c>
       <c r="E22">
-        <v>0.9912956096512738</v>
+        <v>1.030666728704966</v>
       </c>
       <c r="F22">
-        <v>1.00217522876619</v>
+        <v>1.047114991303483</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043532840019472</v>
+        <v>1.036057957599083</v>
       </c>
       <c r="J22">
-        <v>1.012021488830172</v>
+        <v>1.037784275149836</v>
       </c>
       <c r="K22">
-        <v>1.013533657024531</v>
+        <v>1.042650681347025</v>
       </c>
       <c r="L22">
-        <v>1.007041497101205</v>
+        <v>1.034396577914845</v>
       </c>
       <c r="M22">
-        <v>1.017703716762029</v>
+        <v>1.050781658608249</v>
       </c>
       <c r="N22">
-        <v>1.013458675424799</v>
+        <v>1.039258047856069</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9824119277232048</v>
+        <v>1.031282584648679</v>
       </c>
       <c r="D23">
-        <v>0.9996089319714466</v>
+        <v>1.039280673121998</v>
       </c>
       <c r="E23">
-        <v>0.9928817000987131</v>
+        <v>1.030976606159373</v>
       </c>
       <c r="F23">
-        <v>1.004049786612283</v>
+        <v>1.047479701775225</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044142214048446</v>
+        <v>1.036129290911085</v>
       </c>
       <c r="J23">
-        <v>1.01326476159542</v>
+        <v>1.038017870605332</v>
       </c>
       <c r="K23">
-        <v>1.014875148753563</v>
+        <v>1.042909117316122</v>
       </c>
       <c r="L23">
-        <v>1.00827938775479</v>
+        <v>1.03463657301316</v>
       </c>
       <c r="M23">
-        <v>1.019230478807339</v>
+        <v>1.051077564702067</v>
       </c>
       <c r="N23">
-        <v>1.014703713779979</v>
+        <v>1.039491975043906</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9901498470680125</v>
+        <v>1.032724722007056</v>
       </c>
       <c r="D24">
-        <v>1.006104149674625</v>
+        <v>1.040571792185989</v>
       </c>
       <c r="E24">
-        <v>0.9989882481080846</v>
+        <v>1.032197646917264</v>
       </c>
       <c r="F24">
-        <v>1.011260566105335</v>
+        <v>1.048916422880177</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046449994127346</v>
+        <v>1.03640582310234</v>
       </c>
       <c r="J24">
-        <v>1.01803241496833</v>
+        <v>1.038936382637528</v>
       </c>
       <c r="K24">
-        <v>1.020024910930864</v>
+        <v>1.043925976754038</v>
       </c>
       <c r="L24">
-        <v>1.013033154570193</v>
+        <v>1.035581031135946</v>
       </c>
       <c r="M24">
-        <v>1.025092777800293</v>
+        <v>1.052242020694868</v>
       </c>
       <c r="N24">
-        <v>1.019478137767535</v>
+        <v>1.040411791468542</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9987508548083703</v>
+        <v>1.034398637900527</v>
       </c>
       <c r="D25">
-        <v>1.013353286125352</v>
+        <v>1.042071807669346</v>
       </c>
       <c r="E25">
-        <v>1.005810545848563</v>
+        <v>1.033616798209134</v>
       </c>
       <c r="F25">
-        <v>1.019304348099515</v>
+        <v>1.05058546390287</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048948840683669</v>
+        <v>1.036717794577026</v>
       </c>
       <c r="J25">
-        <v>1.023320330924422</v>
+        <v>1.039999893221264</v>
       </c>
       <c r="K25">
-        <v>1.025747786687901</v>
+        <v>1.045104756021899</v>
       </c>
       <c r="L25">
-        <v>1.018319325291896</v>
+        <v>1.036676204519527</v>
       </c>
       <c r="M25">
-        <v>1.031610201819364</v>
+        <v>1.053592240329636</v>
       </c>
       <c r="N25">
-        <v>1.024773563170817</v>
+        <v>1.041476812359293</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_199/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_199/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035734047817174</v>
+        <v>1.005334878095584</v>
       </c>
       <c r="D2">
-        <v>1.043269584451086</v>
+        <v>1.018923822269441</v>
       </c>
       <c r="E2">
-        <v>1.034750445191287</v>
+        <v>1.011058313954743</v>
       </c>
       <c r="F2">
-        <v>1.051918106173402</v>
+        <v>1.025482726477292</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036959400417701</v>
+        <v>1.050806249262393</v>
       </c>
       <c r="J2">
-        <v>1.040846206301867</v>
+        <v>1.027357186363135</v>
       </c>
       <c r="K2">
-        <v>1.046043925429537</v>
+        <v>1.030125666225586</v>
       </c>
       <c r="L2">
-        <v>1.037549022485983</v>
+        <v>1.022365709009162</v>
       </c>
       <c r="M2">
-        <v>1.054668278148881</v>
+        <v>1.03659810473047</v>
       </c>
       <c r="N2">
-        <v>1.042324327301544</v>
+        <v>1.028816151407291</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036703838607883</v>
+        <v>1.0099683128094</v>
       </c>
       <c r="D3">
-        <v>1.044140052608532</v>
+        <v>1.0228554022457</v>
       </c>
       <c r="E3">
-        <v>1.035574561430758</v>
+        <v>1.014764972057229</v>
       </c>
       <c r="F3">
-        <v>1.052886528853457</v>
+        <v>1.029841868234487</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037130628279976</v>
+        <v>1.052080161707695</v>
       </c>
       <c r="J3">
-        <v>1.041459566250191</v>
+        <v>1.030190871647787</v>
       </c>
       <c r="K3">
-        <v>1.04672523875915</v>
+        <v>1.033203962969697</v>
       </c>
       <c r="L3">
-        <v>1.038182351663187</v>
+        <v>1.025212354642649</v>
       </c>
       <c r="M3">
-        <v>1.055449042855943</v>
+        <v>1.04010664055475</v>
       </c>
       <c r="N3">
-        <v>1.042938558291349</v>
+        <v>1.031653860850072</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037331431404833</v>
+        <v>1.01290229025302</v>
       </c>
       <c r="D4">
-        <v>1.044703656870942</v>
+        <v>1.025349919535501</v>
       </c>
       <c r="E4">
-        <v>1.036108270677744</v>
+        <v>1.017118070432811</v>
       </c>
       <c r="F4">
-        <v>1.053513530400893</v>
+        <v>1.032607052800625</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037239477210543</v>
+        <v>1.052871078579908</v>
       </c>
       <c r="J4">
-        <v>1.04185591992719</v>
+        <v>1.031981614936834</v>
       </c>
       <c r="K4">
-        <v>1.04716580836074</v>
+        <v>1.035151725416597</v>
       </c>
       <c r="L4">
-        <v>1.038591961601045</v>
+        <v>1.027014193795696</v>
       </c>
       <c r="M4">
-        <v>1.055953997324652</v>
+        <v>1.042327244319773</v>
       </c>
       <c r="N4">
-        <v>1.043335474836031</v>
+        <v>1.033447147199991</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037595288231778</v>
+        <v>1.014120919949279</v>
       </c>
       <c r="D5">
-        <v>1.044940679504489</v>
+        <v>1.026387169487224</v>
       </c>
       <c r="E5">
-        <v>1.036332748822161</v>
+        <v>1.018096820163528</v>
       </c>
       <c r="F5">
-        <v>1.053777208639293</v>
+        <v>1.0337567100416</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037284770540941</v>
+        <v>1.053195751546413</v>
       </c>
       <c r="J5">
-        <v>1.042022418970643</v>
+        <v>1.032724499652399</v>
       </c>
       <c r="K5">
-        <v>1.047350954490662</v>
+        <v>1.035960337204574</v>
       </c>
       <c r="L5">
-        <v>1.038764113687836</v>
+        <v>1.02776238010579</v>
       </c>
       <c r="M5">
-        <v>1.056166218690577</v>
+        <v>1.043249274185293</v>
       </c>
       <c r="N5">
-        <v>1.043502210327223</v>
+        <v>1.034191086897062</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037639591918701</v>
+        <v>1.014324679880473</v>
       </c>
       <c r="D6">
-        <v>1.044980481504938</v>
+        <v>1.026560668427963</v>
       </c>
       <c r="E6">
-        <v>1.036370445917492</v>
+        <v>1.018260551542991</v>
       </c>
       <c r="F6">
-        <v>1.053821486431562</v>
+        <v>1.033949003174332</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037292348100166</v>
+        <v>1.053249811129823</v>
       </c>
       <c r="J6">
-        <v>1.042050367358927</v>
+        <v>1.032848658939926</v>
       </c>
       <c r="K6">
-        <v>1.047382037247618</v>
+        <v>1.036095516226529</v>
       </c>
       <c r="L6">
-        <v>1.038793015943322</v>
+        <v>1.027887466573912</v>
       </c>
       <c r="M6">
-        <v>1.056201847955363</v>
+        <v>1.04340342254367</v>
       </c>
       <c r="N6">
-        <v>1.043530198405424</v>
+        <v>1.034315422505017</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037334957007522</v>
+        <v>1.01291863114974</v>
       </c>
       <c r="D7">
-        <v>1.044706823652708</v>
+        <v>1.025363823776071</v>
       </c>
       <c r="E7">
-        <v>1.036111269747625</v>
+        <v>1.017131189292626</v>
       </c>
       <c r="F7">
-        <v>1.053517053342855</v>
+        <v>1.032622464391121</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037240084257124</v>
+        <v>1.052875447423945</v>
       </c>
       <c r="J7">
-        <v>1.041858145199775</v>
+        <v>1.031991580068592</v>
       </c>
       <c r="K7">
-        <v>1.047168282566</v>
+        <v>1.035162569888424</v>
       </c>
       <c r="L7">
-        <v>1.03859426209515</v>
+        <v>1.027024227280131</v>
       </c>
       <c r="M7">
-        <v>1.055956833279876</v>
+        <v>1.042339609278636</v>
       </c>
       <c r="N7">
-        <v>1.043337703268759</v>
+        <v>1.033457126483379</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036061777535873</v>
+        <v>1.00691439315813</v>
       </c>
       <c r="D8">
-        <v>1.043563689429955</v>
+        <v>1.02026301017066</v>
       </c>
       <c r="E8">
-        <v>1.035028865058131</v>
+        <v>1.012320614081974</v>
       </c>
       <c r="F8">
-        <v>1.052245312408064</v>
+        <v>1.026967685159148</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037017670410177</v>
+        <v>1.05124378981804</v>
       </c>
       <c r="J8">
-        <v>1.041053603642337</v>
+        <v>1.028323907288902</v>
       </c>
       <c r="K8">
-        <v>1.046274237048945</v>
+        <v>1.031175326922076</v>
       </c>
       <c r="L8">
-        <v>1.037763099161719</v>
+        <v>1.02333624152833</v>
       </c>
       <c r="M8">
-        <v>1.054932192895021</v>
+        <v>1.037794344026104</v>
       </c>
       <c r="N8">
-        <v>1.042532019170026</v>
+        <v>1.029784245187653</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033818866049183</v>
+        <v>0.9958166389413334</v>
       </c>
       <c r="D9">
-        <v>1.041552095777596</v>
+        <v>1.010876739871077</v>
       </c>
       <c r="E9">
-        <v>1.033125034907463</v>
+        <v>1.003478975361483</v>
       </c>
       <c r="F9">
-        <v>1.050007205839053</v>
+        <v>1.016556790692461</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036610866150621</v>
+        <v>1.048104969796182</v>
       </c>
       <c r="J9">
-        <v>1.039631867915557</v>
+        <v>1.021517992289728</v>
       </c>
       <c r="K9">
-        <v>1.04469666764552</v>
+        <v>1.023795780397813</v>
       </c>
       <c r="L9">
-        <v>1.036297019801603</v>
+        <v>1.016515859668594</v>
       </c>
       <c r="M9">
-        <v>1.053124757296032</v>
+        <v>1.029386837784039</v>
       </c>
       <c r="N9">
-        <v>1.041108264415439</v>
+        <v>1.022968665008531</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032324031430063</v>
+        <v>0.9880311833602831</v>
       </c>
       <c r="D10">
-        <v>1.040212951513058</v>
+        <v>1.004323264602216</v>
       </c>
       <c r="E10">
-        <v>1.03185823964231</v>
+        <v>0.9973133569511791</v>
       </c>
       <c r="F10">
-        <v>1.048517125783355</v>
+        <v>1.009283823253264</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036329694659536</v>
+        <v>1.045823324401208</v>
       </c>
       <c r="J10">
-        <v>1.038681383555045</v>
+        <v>1.016727851705764</v>
       </c>
       <c r="K10">
-        <v>1.043643564931695</v>
+        <v>1.018614897450197</v>
       </c>
       <c r="L10">
-        <v>1.035318701800456</v>
+        <v>1.011731289592656</v>
       </c>
       <c r="M10">
-        <v>1.051918590281251</v>
+        <v>1.023487454429574</v>
       </c>
       <c r="N10">
-        <v>1.040156430258113</v>
+        <v>1.018171721875501</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031676863657248</v>
+        <v>0.9845587140987472</v>
       </c>
       <c r="D11">
-        <v>1.039633555608763</v>
+        <v>1.001408454365011</v>
       </c>
       <c r="E11">
-        <v>1.03131029236648</v>
+        <v>0.9945729668875206</v>
       </c>
       <c r="F11">
-        <v>1.047872390158449</v>
+        <v>1.006047898912457</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036205587464062</v>
+        <v>1.044787603034892</v>
       </c>
       <c r="J11">
-        <v>1.038269192235574</v>
+        <v>1.014588282729121</v>
       </c>
       <c r="K11">
-        <v>1.043187241030139</v>
+        <v>1.016303858089921</v>
       </c>
       <c r="L11">
-        <v>1.034894868963123</v>
+        <v>1.009597959991127</v>
       </c>
       <c r="M11">
-        <v>1.051396031682126</v>
+        <v>1.02085665492817</v>
       </c>
       <c r="N11">
-        <v>1.039743653579689</v>
+        <v>1.016029114465499</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031436493119729</v>
+        <v>0.9832527839185462</v>
       </c>
       <c r="D12">
-        <v>1.039418412665187</v>
+        <v>1.000313544060612</v>
       </c>
       <c r="E12">
-        <v>1.03110684908114</v>
+        <v>0.9935438724226001</v>
       </c>
       <c r="F12">
-        <v>1.047632979586438</v>
+        <v>1.004832188908477</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036159134806601</v>
+        <v>1.044395447702879</v>
       </c>
       <c r="J12">
-        <v>1.038115992820593</v>
+        <v>1.01378322535836</v>
       </c>
       <c r="K12">
-        <v>1.043017694230859</v>
+        <v>1.015434739525488</v>
       </c>
       <c r="L12">
-        <v>1.034737407129796</v>
+        <v>1.008795815783944</v>
       </c>
       <c r="M12">
-        <v>1.051201888938192</v>
+        <v>1.019867393686392</v>
       </c>
       <c r="N12">
-        <v>1.039590236603967</v>
+        <v>1.01522291382093</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031488052665707</v>
+        <v>0.9835336537920522</v>
       </c>
       <c r="D13">
-        <v>1.039464558350587</v>
+        <v>1.000548969711661</v>
       </c>
       <c r="E13">
-        <v>1.031150484323998</v>
+        <v>0.9937651328760121</v>
       </c>
       <c r="F13">
-        <v>1.047684330649859</v>
+        <v>1.005093596902269</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036169115056973</v>
+        <v>1.044479907650166</v>
       </c>
       <c r="J13">
-        <v>1.038148858821077</v>
+        <v>1.01395638860175</v>
       </c>
       <c r="K13">
-        <v>1.043054064744164</v>
+        <v>1.015621661291567</v>
       </c>
       <c r="L13">
-        <v>1.034771184637651</v>
+        <v>1.008968326842545</v>
       </c>
       <c r="M13">
-        <v>1.05124353506636</v>
+        <v>1.02008014962947</v>
       </c>
       <c r="N13">
-        <v>1.039623149277941</v>
+        <v>1.015396322975987</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03165699421619</v>
+        <v>0.9844510992624536</v>
       </c>
       <c r="D14">
-        <v>1.039615770382003</v>
+        <v>1.001318201853224</v>
       </c>
       <c r="E14">
-        <v>1.031293473864775</v>
+        <v>0.9944881334179206</v>
       </c>
       <c r="F14">
-        <v>1.047852598912037</v>
+        <v>1.005947692660731</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03620175488547</v>
+        <v>1.044755340791879</v>
       </c>
       <c r="J14">
-        <v>1.038256530621248</v>
+        <v>1.014521950104399</v>
       </c>
       <c r="K14">
-        <v>1.043173227208914</v>
+        <v>1.016232237848806</v>
       </c>
       <c r="L14">
-        <v>1.0348818537557</v>
+        <v>1.009531855894423</v>
       </c>
       <c r="M14">
-        <v>1.051379984617891</v>
+        <v>1.020775132020491</v>
       </c>
       <c r="N14">
-        <v>1.039730973984419</v>
+        <v>1.015962687640842</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031761086869003</v>
+        <v>0.9850142068266138</v>
       </c>
       <c r="D15">
-        <v>1.03970894647668</v>
+        <v>1.001790512140833</v>
       </c>
       <c r="E15">
-        <v>1.031381586229814</v>
+        <v>0.9949320968997604</v>
       </c>
       <c r="F15">
-        <v>1.047956284237816</v>
+        <v>1.006472085650611</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036221818506388</v>
+        <v>1.04492404971999</v>
       </c>
       <c r="J15">
-        <v>1.038322858442326</v>
+        <v>1.014869027333976</v>
       </c>
       <c r="K15">
-        <v>1.043246640828687</v>
+        <v>1.01660700053123</v>
       </c>
       <c r="L15">
-        <v>1.034950036509011</v>
+        <v>1.009877760429982</v>
       </c>
       <c r="M15">
-        <v>1.051464050255724</v>
+        <v>1.021201716247183</v>
       </c>
       <c r="N15">
-        <v>1.03979739599861</v>
+        <v>1.016310257759895</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032366984092349</v>
+        <v>0.988259431555139</v>
       </c>
       <c r="D16">
-        <v>1.040251413940658</v>
+        <v>1.00451503313336</v>
       </c>
       <c r="E16">
-        <v>1.031894617482622</v>
+        <v>0.9974936908681675</v>
       </c>
       <c r="F16">
-        <v>1.048559924938219</v>
+        <v>1.009496694262714</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036337881610838</v>
+        <v>1.04589103328147</v>
       </c>
       <c r="J16">
-        <v>1.038708726224</v>
+        <v>1.016868427986145</v>
       </c>
       <c r="K16">
-        <v>1.043673842900502</v>
+        <v>1.018766803390597</v>
       </c>
       <c r="L16">
-        <v>1.035346825735866</v>
+        <v>1.011871534138977</v>
       </c>
       <c r="M16">
-        <v>1.051953264945507</v>
+        <v>1.02366039373616</v>
       </c>
       <c r="N16">
-        <v>1.040183811756795</v>
+        <v>1.018312497790324</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032747076036091</v>
+        <v>0.9902673498663765</v>
       </c>
       <c r="D17">
-        <v>1.040591813970045</v>
+        <v>1.006202973900687</v>
       </c>
       <c r="E17">
-        <v>1.032216585396428</v>
+        <v>0.9990812034209561</v>
       </c>
       <c r="F17">
-        <v>1.048938701717477</v>
+        <v>1.011370251374812</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036410053998169</v>
+        <v>1.046484628454251</v>
       </c>
       <c r="J17">
-        <v>1.038950603997931</v>
+        <v>1.018104746498391</v>
       </c>
       <c r="K17">
-        <v>1.043941729446079</v>
+        <v>1.020103109679192</v>
       </c>
       <c r="L17">
-        <v>1.035595664228877</v>
+        <v>1.013105361670761</v>
       </c>
       <c r="M17">
-        <v>1.052260061983759</v>
+        <v>1.025181813332576</v>
       </c>
       <c r="N17">
-        <v>1.040426033024908</v>
+        <v>1.019550572016666</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032968787377537</v>
+        <v>0.9914288218779588</v>
       </c>
       <c r="D18">
-        <v>1.040790408094622</v>
+        <v>1.007180126181118</v>
       </c>
       <c r="E18">
-        <v>1.032404440054316</v>
+        <v>1.000000398455675</v>
       </c>
       <c r="F18">
-        <v>1.049159681941829</v>
+        <v>1.012454753364679</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036451923372676</v>
+        <v>1.046826274026758</v>
       </c>
       <c r="J18">
-        <v>1.039091626827566</v>
+        <v>1.01881959499832</v>
       </c>
       <c r="K18">
-        <v>1.044097951870649</v>
+        <v>1.020876061665831</v>
       </c>
       <c r="L18">
-        <v>1.035740786743745</v>
+        <v>1.013819125021748</v>
       </c>
       <c r="M18">
-        <v>1.05243898439836</v>
+        <v>1.026061909723297</v>
       </c>
       <c r="N18">
-        <v>1.040567256123136</v>
+        <v>1.020266435683459</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03304438691908</v>
+        <v>0.9918232320006889</v>
       </c>
       <c r="D19">
-        <v>1.040858131083645</v>
+        <v>1.007512074078246</v>
       </c>
       <c r="E19">
-        <v>1.032468503141301</v>
+        <v>1.000312688115523</v>
       </c>
       <c r="F19">
-        <v>1.049235038282871</v>
+        <v>1.01282315167979</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036466161132599</v>
+        <v>1.046941995872293</v>
       </c>
       <c r="J19">
-        <v>1.039139701703383</v>
+        <v>1.019062290070992</v>
       </c>
       <c r="K19">
-        <v>1.044151214352313</v>
+        <v>1.021138532407133</v>
       </c>
       <c r="L19">
-        <v>1.035790266223735</v>
+        <v>1.014061511875619</v>
       </c>
       <c r="M19">
-        <v>1.052499987692595</v>
+        <v>1.026360775383257</v>
       </c>
       <c r="N19">
-        <v>1.040615399270791</v>
+        <v>1.020509475410972</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032706294714716</v>
+        <v>0.9900529300163575</v>
       </c>
       <c r="D20">
-        <v>1.040555287653292</v>
+        <v>1.00602264317552</v>
       </c>
       <c r="E20">
-        <v>1.032182035463316</v>
+        <v>0.9989115830891909</v>
       </c>
       <c r="F20">
-        <v>1.048898057774253</v>
+        <v>1.011170101240225</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036402334117366</v>
+        <v>1.046421417788236</v>
       </c>
       <c r="J20">
-        <v>1.038924659042244</v>
+        <v>1.017972753788669</v>
       </c>
       <c r="K20">
-        <v>1.043912990982948</v>
+        <v>1.019960411937088</v>
       </c>
       <c r="L20">
-        <v>1.035568968355809</v>
+        <v>1.012973598033594</v>
       </c>
       <c r="M20">
-        <v>1.05222714836229</v>
+        <v>1.025019340933204</v>
       </c>
       <c r="N20">
-        <v>1.040400051224408</v>
+        <v>1.019418391862156</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031607244683592</v>
+        <v>0.9841813862795684</v>
       </c>
       <c r="D21">
-        <v>1.039571240253475</v>
+        <v>1.001092024818629</v>
       </c>
       <c r="E21">
-        <v>1.031251364550931</v>
+        <v>0.9942755415803124</v>
       </c>
       <c r="F21">
-        <v>1.047803046081123</v>
+        <v>1.005696568187797</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036192153029442</v>
+        <v>1.044674440290713</v>
       </c>
       <c r="J21">
-        <v>1.038224826526763</v>
+        <v>1.01435569558689</v>
       </c>
       <c r="K21">
-        <v>1.043138138145658</v>
+        <v>1.016052737947978</v>
       </c>
       <c r="L21">
-        <v>1.034849265320397</v>
+        <v>1.00936618326782</v>
       </c>
       <c r="M21">
-        <v>1.05133980475635</v>
+        <v>1.020570815104262</v>
       </c>
       <c r="N21">
-        <v>1.039699224866482</v>
+        <v>1.015796197022847</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030916323393028</v>
+        <v>0.9803960769236325</v>
       </c>
       <c r="D22">
-        <v>1.038952938949236</v>
+        <v>0.9979208999324629</v>
       </c>
       <c r="E22">
-        <v>1.030666728704966</v>
+        <v>0.9912956096512732</v>
       </c>
       <c r="F22">
-        <v>1.047114991303483</v>
+        <v>1.002175228766189</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036057957599083</v>
+        <v>1.043532840019472</v>
       </c>
       <c r="J22">
-        <v>1.037784275149836</v>
+        <v>1.012021488830172</v>
       </c>
       <c r="K22">
-        <v>1.042650681347025</v>
+        <v>1.01353365702453</v>
       </c>
       <c r="L22">
-        <v>1.034396577914845</v>
+        <v>1.007041497101205</v>
       </c>
       <c r="M22">
-        <v>1.050781658608249</v>
+        <v>1.017703716762029</v>
       </c>
       <c r="N22">
-        <v>1.039258047856069</v>
+        <v>1.013458675424798</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031282584648679</v>
+        <v>0.9824119277232054</v>
       </c>
       <c r="D23">
-        <v>1.039280673121998</v>
+        <v>0.9996089319714465</v>
       </c>
       <c r="E23">
-        <v>1.030976606159373</v>
+        <v>0.9928817000987133</v>
       </c>
       <c r="F23">
-        <v>1.047479701775225</v>
+        <v>1.004049786612283</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036129290911085</v>
+        <v>1.044142214048446</v>
       </c>
       <c r="J23">
-        <v>1.038017870605332</v>
+        <v>1.01326476159542</v>
       </c>
       <c r="K23">
-        <v>1.042909117316122</v>
+        <v>1.014875148753563</v>
       </c>
       <c r="L23">
-        <v>1.03463657301316</v>
+        <v>1.00827938775479</v>
       </c>
       <c r="M23">
-        <v>1.051077564702067</v>
+        <v>1.01923047880734</v>
       </c>
       <c r="N23">
-        <v>1.039491975043906</v>
+        <v>1.014703713779979</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032724722007056</v>
+        <v>0.990149847068013</v>
       </c>
       <c r="D24">
-        <v>1.040571792185989</v>
+        <v>1.006104149674626</v>
       </c>
       <c r="E24">
-        <v>1.032197646917264</v>
+        <v>0.9989882481080848</v>
       </c>
       <c r="F24">
-        <v>1.048916422880177</v>
+        <v>1.011260566105335</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03640582310234</v>
+        <v>1.046449994127346</v>
       </c>
       <c r="J24">
-        <v>1.038936382637528</v>
+        <v>1.01803241496833</v>
       </c>
       <c r="K24">
-        <v>1.043925976754038</v>
+        <v>1.020024910930865</v>
       </c>
       <c r="L24">
-        <v>1.035581031135946</v>
+        <v>1.013033154570193</v>
       </c>
       <c r="M24">
-        <v>1.052242020694868</v>
+        <v>1.025092777800293</v>
       </c>
       <c r="N24">
-        <v>1.040411791468542</v>
+        <v>1.019478137767535</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034398637900527</v>
+        <v>0.9987508548083712</v>
       </c>
       <c r="D25">
-        <v>1.042071807669346</v>
+        <v>1.013353286125352</v>
       </c>
       <c r="E25">
-        <v>1.033616798209134</v>
+        <v>1.005810545848564</v>
       </c>
       <c r="F25">
-        <v>1.05058546390287</v>
+        <v>1.019304348099516</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036717794577026</v>
+        <v>1.048948840683669</v>
       </c>
       <c r="J25">
-        <v>1.039999893221264</v>
+        <v>1.023320330924423</v>
       </c>
       <c r="K25">
-        <v>1.045104756021899</v>
+        <v>1.025747786687902</v>
       </c>
       <c r="L25">
-        <v>1.036676204519527</v>
+        <v>1.018319325291897</v>
       </c>
       <c r="M25">
-        <v>1.053592240329636</v>
+        <v>1.031610201819366</v>
       </c>
       <c r="N25">
-        <v>1.041476812359293</v>
+        <v>1.024773563170817</v>
       </c>
     </row>
   </sheetData>
